--- a/test2.xlsx
+++ b/test2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="298" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="279" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" state="visible" r:id="rId2"/>
@@ -66,11 +66,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ [$Kč-405];[RED]\-#,##0.00\ [$Kč-405]"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -92,25 +91,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
       <b val="true"/>
@@ -270,7 +250,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -294,34 +274,14 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -340,75 +300,75 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -424,11 +384,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -436,7 +392,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -453,17 +409,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading 1" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Heading1 1" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Result 1" xfId="22" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Result2 1" xfId="23" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -536,7 +488,7 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U37" activeCellId="0" sqref="U37"/>
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -544,186 +496,149 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.3767441860465"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="1.68372093023256"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="15.6186046511628"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="1.68372093023256"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="2" width="15.6186046511628"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="1.68372093023256"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.68372093023256"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="15.6186046511628"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="1.68372093023256"/>
     <col collapsed="false" hidden="false" max="13" min="11" style="0" width="15.6186046511628"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="1.68372093023256"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="1.68372093023256"/>
     <col collapsed="false" hidden="false" max="17" min="15" style="0" width="15.6186046511628"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="1.68372093023256"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="1.68372093023256"/>
     <col collapsed="false" hidden="false" max="21" min="19" style="0" width="15.6186046511628"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.66511627906977"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="N1" s="0"/>
-      <c r="R1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="0"/>
-      <c r="R2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="N3" s="0"/>
-      <c r="R3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
-      <c r="J4" s="0"/>
-      <c r="N4" s="0"/>
-      <c r="R4" s="0"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
-      <c r="I5" s="0"/>
-      <c r="J5" s="0"/>
-      <c r="N5" s="0"/>
-      <c r="R5" s="0"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="F6" s="0"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
-      <c r="I6" s="0"/>
-      <c r="J6" s="0"/>
-      <c r="N6" s="0"/>
-      <c r="R6" s="0"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="10" t="n">
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="10" t="n">
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="10" t="n">
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="9" t="n">
         <v>64</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="10" t="n">
+      <c r="P7" s="10"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="9" t="n">
         <v>128</v>
       </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="12"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14" t="n">
+      <c r="C8" s="13" t="n">
         <v>1048576</v>
       </c>
-      <c r="D8" s="15" t="n">
+      <c r="D8" s="14" t="n">
         <v>134217728</v>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E8" s="15" t="n">
         <v>268435456</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14" t="n">
+      <c r="F8" s="12"/>
+      <c r="G8" s="13" t="n">
         <v>1048576</v>
       </c>
-      <c r="H8" s="15" t="n">
+      <c r="H8" s="14" t="n">
         <v>134217728</v>
       </c>
-      <c r="I8" s="16" t="n">
+      <c r="I8" s="15" t="n">
         <v>268435456</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14" t="n">
+      <c r="J8" s="12"/>
+      <c r="K8" s="13" t="n">
         <v>1048576</v>
       </c>
-      <c r="L8" s="15" t="n">
+      <c r="L8" s="14" t="n">
         <v>134217728</v>
       </c>
-      <c r="M8" s="16" t="n">
+      <c r="M8" s="15" t="n">
         <v>268435456</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14" t="n">
+      <c r="N8" s="12"/>
+      <c r="O8" s="13" t="n">
         <v>1048576</v>
       </c>
-      <c r="P8" s="15" t="n">
+      <c r="P8" s="14" t="n">
         <v>134217728</v>
       </c>
-      <c r="Q8" s="16" t="n">
+      <c r="Q8" s="15" t="n">
         <v>268435456</v>
       </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="14" t="n">
+      <c r="R8" s="12"/>
+      <c r="S8" s="13" t="n">
         <v>1048576</v>
       </c>
-      <c r="T8" s="15" t="n">
+      <c r="T8" s="14" t="n">
         <v>134217728</v>
       </c>
-      <c r="U8" s="16" t="n">
+      <c r="U8" s="15" t="n">
         <v>268435456</v>
       </c>
     </row>
@@ -731,46 +646,44 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="17" t="n">
+      <c r="C9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="G9" s="16" t="n">
         <v>17849</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>29650</v>
       </c>
-      <c r="I9" s="18" t="n">
+      <c r="I9" s="17" t="n">
         <v>17148</v>
       </c>
-      <c r="J9" s="0"/>
-      <c r="K9" s="17" t="n">
+      <c r="K9" s="16" t="n">
         <v>9752</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>4193</v>
       </c>
-      <c r="M9" s="18" t="n">
+      <c r="M9" s="17" t="n">
         <v>4299</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="17" t="n">
+      <c r="N9" s="12"/>
+      <c r="O9" s="16" t="n">
         <v>7732</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>2651</v>
       </c>
-      <c r="Q9" s="18" t="n">
+      <c r="Q9" s="17" t="n">
         <v>1861</v>
       </c>
-      <c r="R9" s="13"/>
-      <c r="S9" s="17" t="n">
+      <c r="R9" s="12"/>
+      <c r="S9" s="16" t="n">
         <v>9215</v>
       </c>
       <c r="T9" s="0" t="n">
         <v>1232</v>
       </c>
-      <c r="U9" s="18" t="n">
+      <c r="U9" s="17" t="n">
         <v>1349</v>
       </c>
     </row>
@@ -778,47 +691,45 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="19" t="n">
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="G10" s="18" t="n">
         <v>347</v>
       </c>
-      <c r="H10" s="20" t="n">
+      <c r="H10" s="19" t="n">
         <v>348</v>
       </c>
-      <c r="I10" s="21" t="n">
+      <c r="I10" s="20" t="n">
         <v>355</v>
       </c>
-      <c r="J10" s="0"/>
-      <c r="K10" s="17" t="n">
+      <c r="K10" s="16" t="n">
         <v>1706</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>1635</v>
       </c>
-      <c r="M10" s="18" t="n">
+      <c r="M10" s="17" t="n">
         <v>1378</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="17" t="n">
+      <c r="N10" s="12"/>
+      <c r="O10" s="16" t="n">
         <v>6379</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>6172</v>
       </c>
-      <c r="Q10" s="18" t="n">
+      <c r="Q10" s="17" t="n">
         <v>6245</v>
       </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="22" t="n">
+      <c r="R10" s="12"/>
+      <c r="S10" s="21" t="n">
         <v>20444</v>
       </c>
-      <c r="T10" s="23" t="n">
+      <c r="T10" s="22" t="n">
         <v>19716</v>
       </c>
-      <c r="U10" s="24" t="n">
+      <c r="U10" s="23" t="n">
         <v>19773</v>
       </c>
     </row>
@@ -826,257 +737,217 @@
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="17" t="n">
+      <c r="C11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="G11" s="16" t="n">
         <v>1302</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1375</v>
       </c>
-      <c r="I11" s="18" t="n">
+      <c r="I11" s="17" t="n">
         <v>1316</v>
       </c>
-      <c r="J11" s="0"/>
-      <c r="K11" s="17" t="n">
+      <c r="K11" s="16" t="n">
         <v>2783</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>1289</v>
       </c>
-      <c r="M11" s="18" t="n">
+      <c r="M11" s="17" t="n">
         <v>2168</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="17" t="n">
+      <c r="N11" s="12"/>
+      <c r="O11" s="16" t="n">
         <v>1796</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>1575</v>
       </c>
-      <c r="Q11" s="18" t="n">
+      <c r="Q11" s="17" t="n">
         <v>2372</v>
       </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="17" t="n">
+      <c r="R11" s="12"/>
+      <c r="S11" s="16" t="n">
         <v>2139</v>
       </c>
       <c r="T11" s="0" t="n">
         <v>1804</v>
       </c>
-      <c r="U11" s="18" t="n">
+      <c r="U11" s="17" t="n">
         <v>1292</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="25" t="n">
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="24" t="n">
         <v>20275</v>
       </c>
-      <c r="H12" s="26" t="n">
+      <c r="H12" s="25" t="n">
         <v>19114</v>
       </c>
-      <c r="I12" s="27" t="n">
+      <c r="I12" s="26" t="n">
         <v>19520</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="25" t="n">
+      <c r="J12" s="12"/>
+      <c r="K12" s="24" t="n">
         <v>14572</v>
       </c>
-      <c r="L12" s="26" t="n">
+      <c r="L12" s="25" t="n">
         <v>7406</v>
       </c>
-      <c r="M12" s="27" t="n">
+      <c r="M12" s="26" t="n">
         <v>8111</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="25" t="n">
+      <c r="N12" s="12"/>
+      <c r="O12" s="24" t="n">
         <v>16122</v>
       </c>
-      <c r="P12" s="26" t="n">
+      <c r="P12" s="25" t="n">
         <v>10536</v>
       </c>
-      <c r="Q12" s="27" t="n">
+      <c r="Q12" s="26" t="n">
         <v>10613</v>
       </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="25" t="n">
+      <c r="R12" s="12"/>
+      <c r="S12" s="24" t="n">
         <v>31894</v>
       </c>
-      <c r="T12" s="26" t="n">
+      <c r="T12" s="25" t="n">
         <v>22821</v>
       </c>
-      <c r="U12" s="27" t="n">
+      <c r="U12" s="26" t="n">
         <v>22497</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="N13" s="0"/>
-      <c r="R13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="N14" s="0"/>
-      <c r="R14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="0"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="0"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="N16" s="0"/>
-      <c r="R16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="N17" s="0"/>
-      <c r="R17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="0"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="N18" s="0"/>
-      <c r="R18" s="0"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="10" t="n">
+      <c r="C19" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="10" t="n">
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="10" t="n">
+      <c r="H19" s="10"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="10" t="n">
+      <c r="L19" s="10"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="9" t="n">
         <v>64</v>
       </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="10" t="n">
+      <c r="P19" s="10"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="9" t="n">
         <v>128</v>
       </c>
-      <c r="T19" s="11"/>
-      <c r="U19" s="12"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="14" t="n">
+      <c r="C20" s="13" t="n">
         <v>1048576</v>
       </c>
-      <c r="D20" s="15" t="n">
+      <c r="D20" s="14" t="n">
         <v>134217728</v>
       </c>
-      <c r="E20" s="16" t="n">
+      <c r="E20" s="15" t="n">
         <v>268435456</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14" t="n">
+      <c r="F20" s="12"/>
+      <c r="G20" s="13" t="n">
         <v>1048576</v>
       </c>
-      <c r="H20" s="15" t="n">
+      <c r="H20" s="14" t="n">
         <v>134217728</v>
       </c>
-      <c r="I20" s="16" t="n">
+      <c r="I20" s="15" t="n">
         <v>268435456</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14" t="n">
+      <c r="J20" s="12"/>
+      <c r="K20" s="13" t="n">
         <v>1048576</v>
       </c>
-      <c r="L20" s="15" t="n">
+      <c r="L20" s="14" t="n">
         <v>134217728</v>
       </c>
-      <c r="M20" s="16" t="n">
+      <c r="M20" s="15" t="n">
         <v>268435456</v>
       </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="14" t="n">
+      <c r="N20" s="12"/>
+      <c r="O20" s="13" t="n">
         <v>1048576</v>
       </c>
-      <c r="P20" s="15" t="n">
+      <c r="P20" s="14" t="n">
         <v>134217728</v>
       </c>
-      <c r="Q20" s="16" t="n">
+      <c r="Q20" s="15" t="n">
         <v>268435456</v>
       </c>
-      <c r="R20" s="13"/>
-      <c r="S20" s="14" t="n">
+      <c r="R20" s="12"/>
+      <c r="S20" s="13" t="n">
         <v>1048576</v>
       </c>
-      <c r="T20" s="15" t="n">
+      <c r="T20" s="14" t="n">
         <v>134217728</v>
       </c>
-      <c r="U20" s="16" t="n">
+      <c r="U20" s="15" t="n">
         <v>268435456</v>
       </c>
     </row>
@@ -1084,46 +955,44 @@
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="17" t="n">
+      <c r="C21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="G21" s="16" t="n">
         <v>11418</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>9977</v>
       </c>
-      <c r="I21" s="18" t="n">
+      <c r="I21" s="17" t="n">
         <v>2783</v>
       </c>
-      <c r="J21" s="0"/>
-      <c r="K21" s="17" t="n">
+      <c r="K21" s="16" t="n">
         <v>8267</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>5468</v>
       </c>
-      <c r="M21" s="18" t="n">
+      <c r="M21" s="17" t="n">
         <v>4168</v>
       </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="17" t="n">
+      <c r="N21" s="12"/>
+      <c r="O21" s="16" t="n">
         <v>7636</v>
       </c>
       <c r="P21" s="0" t="n">
         <v>2403</v>
       </c>
-      <c r="Q21" s="18" t="n">
+      <c r="Q21" s="17" t="n">
         <v>2483</v>
       </c>
-      <c r="R21" s="13"/>
-      <c r="S21" s="17" t="n">
+      <c r="R21" s="12"/>
+      <c r="S21" s="16" t="n">
         <v>9353</v>
       </c>
       <c r="T21" s="0" t="n">
         <v>2281</v>
       </c>
-      <c r="U21" s="18" t="n">
+      <c r="U21" s="17" t="n">
         <v>2340</v>
       </c>
     </row>
@@ -1131,47 +1000,45 @@
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="19" t="n">
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="G22" s="18" t="n">
         <v>341</v>
       </c>
-      <c r="H22" s="20" t="n">
+      <c r="H22" s="19" t="n">
         <v>351</v>
       </c>
-      <c r="I22" s="21" t="n">
+      <c r="I22" s="20" t="n">
         <v>341</v>
       </c>
-      <c r="J22" s="0"/>
-      <c r="K22" s="17" t="n">
+      <c r="K22" s="16" t="n">
         <v>1576</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>1646</v>
       </c>
-      <c r="M22" s="18" t="n">
+      <c r="M22" s="17" t="n">
         <v>1646</v>
       </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="17" t="n">
+      <c r="N22" s="12"/>
+      <c r="O22" s="16" t="n">
         <v>6255</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>6243</v>
       </c>
-      <c r="Q22" s="18" t="n">
+      <c r="Q22" s="17" t="n">
         <v>6323</v>
       </c>
-      <c r="R22" s="13"/>
-      <c r="S22" s="22" t="n">
+      <c r="R22" s="12"/>
+      <c r="S22" s="21" t="n">
         <v>20321</v>
       </c>
-      <c r="T22" s="23" t="n">
+      <c r="T22" s="22" t="n">
         <v>20169</v>
       </c>
-      <c r="U22" s="24" t="n">
+      <c r="U22" s="23" t="n">
         <v>19900</v>
       </c>
     </row>
@@ -1179,275 +1046,228 @@
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="0"/>
-      <c r="G23" s="17" t="n">
+      <c r="C23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="G23" s="16" t="n">
         <v>1241</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1352</v>
       </c>
-      <c r="I23" s="18" t="n">
+      <c r="I23" s="17" t="n">
         <v>1282</v>
       </c>
-      <c r="J23" s="0"/>
-      <c r="K23" s="17" t="n">
+      <c r="K23" s="16" t="n">
         <v>4098</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>1263</v>
       </c>
-      <c r="M23" s="18" t="n">
+      <c r="M23" s="17" t="n">
         <v>1319</v>
       </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="17" t="n">
+      <c r="N23" s="12"/>
+      <c r="O23" s="16" t="n">
         <v>1887</v>
       </c>
       <c r="P23" s="0" t="n">
         <v>1588</v>
       </c>
-      <c r="Q23" s="18" t="n">
+      <c r="Q23" s="17" t="n">
         <v>2339</v>
       </c>
-      <c r="R23" s="13"/>
-      <c r="S23" s="17" t="n">
+      <c r="R23" s="12"/>
+      <c r="S23" s="16" t="n">
         <v>1483</v>
       </c>
       <c r="T23" s="0" t="n">
         <v>1525</v>
       </c>
-      <c r="U23" s="18" t="n">
+      <c r="U23" s="17" t="n">
         <v>1439</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="25" t="n">
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="24" t="n">
         <v>13683</v>
       </c>
-      <c r="H24" s="26" t="n">
+      <c r="H24" s="25" t="n">
         <v>12394</v>
       </c>
-      <c r="I24" s="27" t="n">
+      <c r="I24" s="26" t="n">
         <v>5098</v>
       </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="25" t="n">
+      <c r="J24" s="12"/>
+      <c r="K24" s="24" t="n">
         <v>14225</v>
       </c>
-      <c r="L24" s="26" t="n">
+      <c r="L24" s="25" t="n">
         <v>8662</v>
       </c>
-      <c r="M24" s="27" t="n">
+      <c r="M24" s="26" t="n">
         <v>7415</v>
       </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="25" t="n">
+      <c r="N24" s="12"/>
+      <c r="O24" s="24" t="n">
         <v>15911</v>
       </c>
-      <c r="P24" s="26" t="n">
+      <c r="P24" s="25" t="n">
         <v>10370</v>
       </c>
-      <c r="Q24" s="27" t="n">
+      <c r="Q24" s="26" t="n">
         <v>11279</v>
       </c>
-      <c r="R24" s="13"/>
-      <c r="S24" s="25" t="n">
+      <c r="R24" s="12"/>
+      <c r="S24" s="24" t="n">
         <v>31232</v>
       </c>
-      <c r="T24" s="26" t="n">
+      <c r="T24" s="25" t="n">
         <v>24046</v>
       </c>
-      <c r="U24" s="27" t="n">
+      <c r="U24" s="26" t="n">
         <v>23744</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
-      <c r="N25" s="0"/>
-      <c r="R25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
-      <c r="I26" s="0"/>
-      <c r="J26" s="0"/>
-      <c r="N26" s="0"/>
-      <c r="R26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="0"/>
-      <c r="G27" s="29" t="n">
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="G27" s="27" t="n">
         <v>200</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="0"/>
-      <c r="K27" s="30" t="n">
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="K27" s="28" t="n">
         <v>800</v>
       </c>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="0"/>
-      <c r="O27" s="30" t="n">
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="O27" s="28" t="n">
         <v>1800</v>
       </c>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="0"/>
-      <c r="S27" s="31" t="n">
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="S27" s="29" t="n">
         <v>5700</v>
       </c>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0"/>
-      <c r="I28" s="0"/>
-      <c r="J28" s="0"/>
-      <c r="N28" s="0"/>
-      <c r="R28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0"/>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
-      <c r="N29" s="0"/>
-      <c r="R29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="0"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
-      <c r="N30" s="0"/>
-      <c r="R30" s="0"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
-      <c r="I31" s="0"/>
-      <c r="J31" s="0"/>
-      <c r="N31" s="0"/>
-      <c r="R31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="10" t="n">
+      <c r="C32" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="10" t="n">
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="10" t="n">
+      <c r="H32" s="10"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="10" t="n">
+      <c r="L32" s="10"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="9" t="n">
         <v>64</v>
       </c>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="10" t="n">
+      <c r="P32" s="10"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="9" t="n">
         <v>128</v>
       </c>
-      <c r="T32" s="11"/>
-      <c r="U32" s="12"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="14" t="n">
+      <c r="C33" s="13" t="n">
         <v>1048576</v>
       </c>
-      <c r="D33" s="15" t="n">
+      <c r="D33" s="14" t="n">
         <v>134217728</v>
       </c>
-      <c r="E33" s="16" t="n">
+      <c r="E33" s="15" t="n">
         <v>268435456</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14" t="n">
+      <c r="F33" s="12"/>
+      <c r="G33" s="13" t="n">
         <v>1048576</v>
       </c>
-      <c r="H33" s="15" t="n">
+      <c r="H33" s="14" t="n">
         <v>134217728</v>
       </c>
-      <c r="I33" s="16" t="n">
+      <c r="I33" s="15" t="n">
         <v>268435456</v>
       </c>
-      <c r="J33" s="13"/>
-      <c r="K33" s="14" t="n">
+      <c r="J33" s="12"/>
+      <c r="K33" s="13" t="n">
         <v>1048576</v>
       </c>
-      <c r="L33" s="15" t="n">
+      <c r="L33" s="14" t="n">
         <v>134217728</v>
       </c>
-      <c r="M33" s="16" t="n">
+      <c r="M33" s="15" t="n">
         <v>268435456</v>
       </c>
-      <c r="N33" s="13"/>
-      <c r="O33" s="14" t="n">
+      <c r="N33" s="12"/>
+      <c r="O33" s="13" t="n">
         <v>1048576</v>
       </c>
-      <c r="P33" s="15" t="n">
+      <c r="P33" s="14" t="n">
         <v>134217728</v>
       </c>
-      <c r="Q33" s="16" t="n">
+      <c r="Q33" s="15" t="n">
         <v>268435456</v>
       </c>
-      <c r="R33" s="13"/>
-      <c r="S33" s="14" t="n">
+      <c r="R33" s="12"/>
+      <c r="S33" s="13" t="n">
         <v>1048576</v>
       </c>
-      <c r="T33" s="15" t="n">
+      <c r="T33" s="14" t="n">
         <v>134217728</v>
       </c>
-      <c r="U33" s="16" t="n">
+      <c r="U33" s="15" t="n">
         <v>268435456</v>
       </c>
     </row>
@@ -1455,53 +1275,51 @@
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="17" t="n">
-        <v>5729</v>
+      <c r="C34" s="16" t="n">
+        <v>6851</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>6438</v>
-      </c>
-      <c r="E34" s="18" t="n">
-        <v>7098</v>
-      </c>
-      <c r="F34" s="0"/>
-      <c r="G34" s="17" t="n">
+        <v>6989</v>
+      </c>
+      <c r="E34" s="17" t="n">
+        <v>7193</v>
+      </c>
+      <c r="G34" s="16" t="n">
         <v>18646</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>16706</v>
       </c>
-      <c r="I34" s="18" t="n">
+      <c r="I34" s="17" t="n">
         <v>16735</v>
       </c>
-      <c r="J34" s="0"/>
-      <c r="K34" s="17" t="n">
+      <c r="K34" s="16" t="n">
         <v>9961</v>
       </c>
       <c r="L34" s="0" t="n">
         <v>5110</v>
       </c>
-      <c r="M34" s="18" t="n">
+      <c r="M34" s="17" t="n">
         <v>4189</v>
       </c>
-      <c r="N34" s="13"/>
-      <c r="O34" s="17" t="n">
+      <c r="N34" s="12"/>
+      <c r="O34" s="16" t="n">
         <v>7790</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>1707</v>
       </c>
-      <c r="Q34" s="18" t="n">
+      <c r="Q34" s="17" t="n">
         <v>1762</v>
       </c>
-      <c r="R34" s="13"/>
-      <c r="S34" s="17" t="n">
+      <c r="R34" s="12"/>
+      <c r="S34" s="16" t="n">
         <v>8782</v>
       </c>
       <c r="T34" s="0" t="n">
         <v>1255</v>
       </c>
-      <c r="U34" s="18" t="n">
+      <c r="U34" s="17" t="n">
         <v>1317</v>
       </c>
     </row>
@@ -1509,104 +1327,104 @@
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="32" t="n">
-        <v>10849</v>
-      </c>
-      <c r="D35" s="33" t="n">
-        <v>67321</v>
-      </c>
-      <c r="E35" s="34" t="n">
-        <v>65574</v>
-      </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="32" t="n">
+      <c r="C35" s="30" t="n">
+        <v>11745</v>
+      </c>
+      <c r="D35" s="31" t="n">
+        <v>20941</v>
+      </c>
+      <c r="E35" s="32" t="n">
+        <v>12705</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="30" t="n">
         <v>12799</v>
       </c>
-      <c r="H35" s="33" t="n">
+      <c r="H35" s="31" t="n">
         <v>14062</v>
       </c>
-      <c r="I35" s="34" t="n">
+      <c r="I35" s="32" t="n">
         <v>13951</v>
       </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="32" t="n">
+      <c r="J35" s="12"/>
+      <c r="K35" s="30" t="n">
         <v>20982</v>
       </c>
-      <c r="L35" s="33" t="n">
+      <c r="L35" s="31" t="n">
         <v>12471</v>
       </c>
-      <c r="M35" s="34" t="n">
+      <c r="M35" s="32" t="n">
         <v>9993</v>
       </c>
-      <c r="N35" s="13"/>
-      <c r="O35" s="32" t="n">
+      <c r="N35" s="12"/>
+      <c r="O35" s="30" t="n">
         <v>18441</v>
       </c>
-      <c r="P35" s="33" t="n">
+      <c r="P35" s="31" t="n">
         <v>7804</v>
       </c>
-      <c r="Q35" s="34" t="n">
+      <c r="Q35" s="32" t="n">
         <v>6340</v>
       </c>
-      <c r="R35" s="13"/>
-      <c r="S35" s="32" t="n">
+      <c r="R35" s="12"/>
+      <c r="S35" s="30" t="n">
         <v>13667</v>
       </c>
-      <c r="T35" s="33" t="n">
+      <c r="T35" s="31" t="n">
         <v>6561</v>
       </c>
-      <c r="U35" s="34" t="n">
+      <c r="U35" s="32" t="n">
         <v>7100</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="25" t="n">
-        <v>20381</v>
-      </c>
-      <c r="D36" s="26" t="n">
-        <v>77563</v>
-      </c>
-      <c r="E36" s="27" t="n">
-        <v>76542</v>
-      </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="25" t="n">
+      <c r="C36" s="24" t="n">
+        <v>22433</v>
+      </c>
+      <c r="D36" s="25" t="n">
+        <v>31873</v>
+      </c>
+      <c r="E36" s="26" t="n">
+        <v>23803</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="24" t="n">
         <v>32127</v>
       </c>
-      <c r="H36" s="26" t="n">
+      <c r="H36" s="25" t="n">
         <v>31540</v>
       </c>
-      <c r="I36" s="27" t="n">
+      <c r="I36" s="26" t="n">
         <v>31473</v>
       </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="25" t="n">
+      <c r="J36" s="12"/>
+      <c r="K36" s="24" t="n">
         <v>31266</v>
       </c>
-      <c r="L36" s="26" t="n">
+      <c r="L36" s="25" t="n">
         <v>18109</v>
       </c>
-      <c r="M36" s="27" t="n">
+      <c r="M36" s="26" t="n">
         <v>14831</v>
       </c>
-      <c r="N36" s="13"/>
-      <c r="O36" s="25" t="n">
+      <c r="N36" s="12"/>
+      <c r="O36" s="24" t="n">
         <v>26423</v>
       </c>
-      <c r="P36" s="26" t="n">
+      <c r="P36" s="25" t="n">
         <v>9810</v>
       </c>
-      <c r="Q36" s="27" t="n">
+      <c r="Q36" s="26" t="n">
         <v>8424</v>
       </c>
-      <c r="R36" s="13"/>
-      <c r="S36" s="25" t="n">
+      <c r="R36" s="12"/>
+      <c r="S36" s="24" t="n">
         <v>22658</v>
       </c>
-      <c r="T36" s="26" t="n">
+      <c r="T36" s="25" t="n">
         <v>8121</v>
       </c>
-      <c r="U36" s="27" t="n">
+      <c r="U36" s="26" t="n">
         <v>8699</v>
       </c>
     </row>
